--- a/data/trans_bre/P21D_5_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21D_5_R-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.02846893868461548</v>
+        <v>-0.02846893868461552</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.1243742176748257</v>
+        <v>-0.1243742176748259</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7164144057852019</v>
+        <v>-0.7174841528051352</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5455602033040372</v>
+        <v>0.4060777965091504</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5739384511557999</v>
+        <v>0.5739384511557998</v>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1237494707557448</v>
+        <v>0.138797412832577</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.445904208075052</v>
+        <v>1.443560064851839</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.2649602523679082</v>
+        <v>-0.264960252367908</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-1</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.354054460106715</v>
+        <v>-1.62501673668373</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2424926291288072</v>
+        <v>0.2424926291288073</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6072441304585248</v>
+        <v>0.607244130458525</v>
       </c>
     </row>
     <row r="14">
@@ -694,11 +694,9 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7242226169261544</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6307545898575555</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -708,7 +706,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9455716530139262</v>
+        <v>1.074823164218862</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -724,10 +722,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.178210010232092</v>
+        <v>0.1782100102320919</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.8250920165483467</v>
+        <v>0.8250920165483464</v>
       </c>
     </row>
     <row r="17">
@@ -738,10 +736,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1336244764173652</v>
+        <v>-0.1493650581064762</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.5699507414030589</v>
+        <v>-0.5893411260768988</v>
       </c>
     </row>
     <row r="18">
@@ -752,10 +750,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4749844426939436</v>
+        <v>0.5292569851095404</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6.363004343675221</v>
+        <v>8.853094977657236</v>
       </c>
     </row>
     <row r="19">
